--- a/tabs/pd_cogREH_desc.xlsx
+++ b/tabs/pd_cogREH_desc.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -43,16 +43,19 @@
     <t xml:space="preserve">Gender</t>
   </si>
   <si>
-    <t xml:space="preserve">17/14</t>
+    <t xml:space="preserve">15/11</t>
   </si>
   <si>
-    <t xml:space="preserve">16/15</t>
+    <t xml:space="preserve">14/13</t>
   </si>
   <si>
     <t xml:space="preserve">Age</t>
   </si>
   <si>
-    <t xml:space="preserve">31</t>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27</t>
   </si>
   <si>
     <t xml:space="preserve">Years_of_education</t>
@@ -61,16 +64,13 @@
     <t xml:space="preserve">STAI_X1_HS</t>
   </si>
   <si>
-    <t xml:space="preserve">26</t>
+    <t xml:space="preserve">25</t>
   </si>
   <si>
     <t xml:space="preserve">12</t>
   </si>
   <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
+    <t xml:space="preserve">7</t>
   </si>
   <si>
     <t xml:space="preserve">STAI_X_2_HS</t>
@@ -79,40 +79,28 @@
     <t xml:space="preserve">BDI_II_total_score</t>
   </si>
   <si>
-    <t xml:space="preserve">8</t>
+    <t xml:space="preserve">MDRS_attention</t>
   </si>
   <si>
-    <t xml:space="preserve">MDRS_attention_37/37</t>
+    <t xml:space="preserve">MDRS_initiation</t>
   </si>
   <si>
-    <t xml:space="preserve">29</t>
+    <t xml:space="preserve">MDRS_construction</t>
   </si>
   <si>
-    <t xml:space="preserve">25</t>
+    <t xml:space="preserve">MDRS_conception</t>
   </si>
   <si>
-    <t xml:space="preserve">MDRS_initiation_37/37</t>
+    <t xml:space="preserve">MDRS_.memory</t>
   </si>
   <si>
-    <t xml:space="preserve">MDRS_construction_6/6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MDRS_conception_39/39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MDRS_.memory_25/25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MDRS_total_144/144</t>
+    <t xml:space="preserve">MDRS_total</t>
   </si>
   <si>
     <t xml:space="preserve">Total_.AVLT.1_5</t>
   </si>
   <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
+    <t xml:space="preserve">8</t>
   </si>
   <si>
     <t xml:space="preserve">AVLT_T6</t>
@@ -146,9 +134,6 @@
   </si>
   <si>
     <t xml:space="preserve">Stroop_neutral_words</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
   </si>
   <si>
     <t xml:space="preserve">Stroop_color_words</t>
@@ -594,56 +579,56 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
@@ -657,16 +642,16 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
         <v>17</v>
@@ -677,42 +662,42 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
         <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
       </c>
       <c r="G8" t="s">
         <v>17</v>
@@ -720,22 +705,22 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
         <v>15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s">
-        <v>23</v>
       </c>
       <c r="G9" t="s">
         <v>17</v>
@@ -743,22 +728,22 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
         <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" t="s">
-        <v>23</v>
       </c>
       <c r="G10" t="s">
         <v>17</v>
@@ -766,22 +751,22 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
         <v>15</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>23</v>
       </c>
       <c r="G11" t="s">
         <v>17</v>
@@ -789,22 +774,22 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>15</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>23</v>
       </c>
       <c r="G12" t="s">
         <v>17</v>
@@ -812,22 +797,22 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>15</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>23</v>
       </c>
       <c r="G13" t="s">
         <v>17</v>
@@ -835,669 +820,669 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E21" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E22" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E23" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E28" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E29" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" t="s">
         <v>15</v>
       </c>
-      <c r="E30" t="s">
-        <v>22</v>
-      </c>
       <c r="F30" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G30" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
         <v>16</v>
       </c>
-      <c r="C31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>15</v>
       </c>
-      <c r="E31" t="s">
-        <v>22</v>
-      </c>
       <c r="F31" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G31" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" t="s">
         <v>15</v>
       </c>
-      <c r="E32" t="s">
-        <v>22</v>
-      </c>
       <c r="F32" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G33" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" t="s">
         <v>15</v>
       </c>
-      <c r="E34" t="s">
-        <v>22</v>
-      </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G34" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E35" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G35" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E36" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G36" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B37" t="s">
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E37" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E38" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G38" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E39" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G39" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B40" t="s">
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E40" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G40" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B41" t="s">
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E41" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G41" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B42" t="s">
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E42" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G42" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1553,68 +1538,68 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>68.3870967741936</v>
+        <v>68.0384615384615</v>
       </c>
       <c r="C3" t="n">
-        <v>68.3870967741936</v>
+        <v>68.0384615384615</v>
       </c>
       <c r="D3" t="n">
-        <v>68.3870967741936</v>
+        <v>68.0384615384615</v>
       </c>
       <c r="E3" t="n">
-        <v>69.0967741935484</v>
+        <v>68.6296296296296</v>
       </c>
       <c r="F3" t="n">
-        <v>69.0967741935484</v>
+        <v>68.6296296296296</v>
       </c>
       <c r="G3" t="n">
-        <v>69.0967741935484</v>
+        <v>68.6296296296296</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>15.9354838709677</v>
+        <v>15.9807692307692</v>
       </c>
       <c r="C4" t="n">
-        <v>15.9354838709677</v>
+        <v>15.9807692307692</v>
       </c>
       <c r="D4" t="n">
-        <v>15.9354838709677</v>
+        <v>15.9807692307692</v>
       </c>
       <c r="E4" t="n">
-        <v>15.4838709677419</v>
+        <v>15.5185185185185</v>
       </c>
       <c r="F4" t="n">
-        <v>15.4838709677419</v>
+        <v>15.5185185185185</v>
       </c>
       <c r="G4" t="n">
-        <v>15.4838709677419</v>
+        <v>15.5185185185185</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>37.741935483871</v>
+        <v>37.2692307692308</v>
       </c>
       <c r="C5" t="n">
-        <v>38.1923076923077</v>
+        <v>37.92</v>
       </c>
       <c r="D5" t="n">
         <v>37.3333333333333</v>
       </c>
       <c r="E5" t="n">
-        <v>39.1333333333333</v>
+        <v>36.8846153846154</v>
       </c>
       <c r="F5" t="n">
         <v>41</v>
       </c>
       <c r="G5" t="n">
-        <v>45.5555555555556</v>
+        <v>41.8571428571429</v>
       </c>
     </row>
     <row r="6">
@@ -1622,22 +1607,22 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>40.1612903225806</v>
+        <v>39.8846153846154</v>
       </c>
       <c r="C6" t="n">
-        <v>40.5</v>
+        <v>40.04</v>
       </c>
       <c r="D6" t="n">
         <v>42.1666666666667</v>
       </c>
       <c r="E6" t="n">
-        <v>44.8</v>
+        <v>44.0769230769231</v>
       </c>
       <c r="F6" t="n">
         <v>44.7307692307692</v>
       </c>
       <c r="G6" t="n">
-        <v>45.3333333333333</v>
+        <v>41.4285714285714</v>
       </c>
     </row>
     <row r="7">
@@ -1645,827 +1630,827 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>10.0666666666667</v>
+        <v>10.16</v>
       </c>
       <c r="C7" t="n">
-        <v>9.5</v>
+        <v>9.88</v>
       </c>
       <c r="D7" t="n">
         <v>9.25</v>
       </c>
       <c r="E7" t="n">
-        <v>14.1</v>
+        <v>13.5384615384615</v>
       </c>
       <c r="F7" t="n">
         <v>13.5</v>
       </c>
       <c r="G7" t="n">
-        <v>14.625</v>
+        <v>12.4285714285714</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>35.5483870967742</v>
+        <v>35.7692307692308</v>
       </c>
       <c r="C8" t="n">
-        <v>35.6896551724138</v>
+        <v>36.0384615384615</v>
       </c>
       <c r="D8" t="n">
         <v>36.4166666666667</v>
       </c>
       <c r="E8" t="n">
-        <v>35.7096774193548</v>
+        <v>35.8148148148148</v>
       </c>
       <c r="F8" t="n">
         <v>35.72</v>
       </c>
       <c r="G8" t="n">
-        <v>35.6666666666667</v>
+        <v>36.2857142857143</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>34.8387096774194</v>
+        <v>35.8846153846154</v>
       </c>
       <c r="C9" t="n">
-        <v>34.7931034482759</v>
+        <v>36.6153846153846</v>
       </c>
       <c r="D9" t="n">
         <v>36</v>
       </c>
       <c r="E9" t="n">
-        <v>36.3225806451613</v>
+        <v>36.2592592592593</v>
       </c>
       <c r="F9" t="n">
         <v>35.64</v>
       </c>
       <c r="G9" t="n">
-        <v>35.6666666666667</v>
+        <v>36.4285714285714</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>5.87096774193548</v>
+        <v>5.88461538461539</v>
       </c>
       <c r="C10" t="n">
-        <v>5.93103448275862</v>
+        <v>5.92307692307692</v>
       </c>
       <c r="D10" t="n">
         <v>6</v>
       </c>
       <c r="E10" t="n">
-        <v>5.87096774193548</v>
+        <v>5.92592592592593</v>
       </c>
       <c r="F10" t="n">
         <v>6</v>
       </c>
       <c r="G10" t="n">
-        <v>5.77777777777778</v>
+        <v>5.85714285714286</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>37.6774193548387</v>
+        <v>38.1538461538462</v>
       </c>
       <c r="C11" t="n">
-        <v>37.1034482758621</v>
+        <v>38.2307692307692</v>
       </c>
       <c r="D11" t="n">
         <v>38.0833333333333</v>
       </c>
       <c r="E11" t="n">
-        <v>37.8387096774194</v>
+        <v>37.9259259259259</v>
       </c>
       <c r="F11" t="n">
         <v>37.96</v>
       </c>
       <c r="G11" t="n">
-        <v>37.6666666666667</v>
+        <v>38.5714285714286</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B12" t="n">
-        <v>23</v>
+        <v>23.7307692307692</v>
       </c>
       <c r="C12" t="n">
-        <v>23.1034482758621</v>
+        <v>23.7307692307692</v>
       </c>
       <c r="D12" t="n">
         <v>22.5</v>
       </c>
       <c r="E12" t="n">
-        <v>23.7096774193548</v>
+        <v>23.8148148148148</v>
       </c>
       <c r="F12" t="n">
         <v>24.12</v>
       </c>
       <c r="G12" t="n">
-        <v>23.2222222222222</v>
+        <v>24.2857142857143</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B13" t="n">
-        <v>136.967741935484</v>
+        <v>139.461538461538</v>
       </c>
       <c r="C13" t="n">
-        <v>136.724137931034</v>
+        <v>140.653846153846</v>
       </c>
       <c r="D13" t="n">
         <v>139</v>
       </c>
       <c r="E13" t="n">
-        <v>139.41935483871</v>
+        <v>139.703703703704</v>
       </c>
       <c r="F13" t="n">
         <v>139.52</v>
       </c>
       <c r="G13" t="n">
-        <v>138.111111111111</v>
+        <v>141.428571428571</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B14" t="n">
-        <v>37.0322580645161</v>
+        <v>39.2307692307692</v>
       </c>
       <c r="C14" t="n">
-        <v>42.1724137931034</v>
+        <v>44.5384615384615</v>
       </c>
       <c r="D14" t="n">
         <v>39.3333333333333</v>
       </c>
       <c r="E14" t="n">
-        <v>40.3548387096774</v>
+        <v>42.4074074074074</v>
       </c>
       <c r="F14" t="n">
         <v>45.1111111111111</v>
       </c>
       <c r="G14" t="n">
-        <v>39.2</v>
+        <v>42.375</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B15" t="n">
-        <v>3.70967741935484</v>
+        <v>3.80769230769231</v>
       </c>
       <c r="C15" t="n">
-        <v>4.06896551724138</v>
+        <v>4.26923076923077</v>
       </c>
       <c r="D15" t="n">
         <v>3.66666666666667</v>
       </c>
       <c r="E15" t="n">
-        <v>3.67741935483871</v>
+        <v>3.81481481481481</v>
       </c>
       <c r="F15" t="n">
         <v>4</v>
       </c>
       <c r="G15" t="n">
-        <v>3.6</v>
+        <v>3.875</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B16" t="n">
-        <v>6.67741935483871</v>
+        <v>6.88461538461539</v>
       </c>
       <c r="C16" t="n">
-        <v>8.13793103448276</v>
+        <v>8.84615384615385</v>
       </c>
       <c r="D16" t="n">
         <v>7.16666666666667</v>
       </c>
       <c r="E16" t="n">
-        <v>7.03225806451613</v>
+        <v>7.40740740740741</v>
       </c>
       <c r="F16" t="n">
         <v>8.74074074074074</v>
       </c>
       <c r="G16" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B17" t="n">
-        <v>6.06451612903226</v>
+        <v>6.30769230769231</v>
       </c>
       <c r="C17" t="n">
-        <v>7.68965517241379</v>
+        <v>8.38461538461539</v>
       </c>
       <c r="D17" t="n">
         <v>7.25</v>
       </c>
       <c r="E17" t="n">
-        <v>6.80645161290323</v>
+        <v>7.22222222222222</v>
       </c>
       <c r="F17" t="n">
         <v>8.51851851851852</v>
       </c>
       <c r="G17" t="n">
-        <v>7.6</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B18" t="n">
-        <v>12.6129032258065</v>
+        <v>12.5384615384615</v>
       </c>
       <c r="C18" t="n">
-        <v>13.2068965517241</v>
+        <v>13.1923076923077</v>
       </c>
       <c r="D18" t="n">
         <v>12.3333333333333</v>
       </c>
       <c r="E18" t="n">
-        <v>11.9032258064516</v>
+        <v>12.2592592592593</v>
       </c>
       <c r="F18" t="n">
         <v>13.4444444444444</v>
       </c>
       <c r="G18" t="n">
-        <v>11.1</v>
+        <v>11.375</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B19" t="n">
-        <v>5.58064516129032</v>
+        <v>4.5</v>
       </c>
       <c r="C19" t="n">
-        <v>4.86206896551724</v>
+        <v>3.5</v>
       </c>
       <c r="D19" t="n">
         <v>4.33333333333333</v>
       </c>
       <c r="E19" t="n">
-        <v>5.38709677419355</v>
+        <v>5</v>
       </c>
       <c r="F19" t="n">
         <v>4.11111111111111</v>
       </c>
       <c r="G19" t="n">
-        <v>5.2</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B20" t="n">
-        <v>20.0322580645161</v>
+        <v>21.2307692307692</v>
       </c>
       <c r="C20" t="n">
-        <v>22.8275862068966</v>
+        <v>24.5</v>
       </c>
       <c r="D20" t="n">
         <v>24.3333333333333</v>
       </c>
       <c r="E20" t="n">
-        <v>18.9</v>
+        <v>20</v>
       </c>
       <c r="F20" t="n">
         <v>23.3076923076923</v>
       </c>
       <c r="G20" t="n">
-        <v>18.8</v>
+        <v>20.875</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B21" t="n">
-        <v>7.2258064516129</v>
+        <v>7.84615384615385</v>
       </c>
       <c r="C21" t="n">
-        <v>8.79310344827586</v>
+        <v>9.57692307692308</v>
       </c>
       <c r="D21" t="n">
         <v>9.66666666666667</v>
       </c>
       <c r="E21" t="n">
-        <v>8.03333333333333</v>
+        <v>8.30769230769231</v>
       </c>
       <c r="F21" t="n">
         <v>8.73076923076923</v>
       </c>
       <c r="G21" t="n">
-        <v>7.8</v>
+        <v>8.375</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B22" t="n">
-        <v>5.48387096774194</v>
+        <v>5.61538461538461</v>
       </c>
       <c r="C22" t="n">
-        <v>5.68965517241379</v>
+        <v>5.76923076923077</v>
       </c>
       <c r="D22" t="n">
         <v>5.66666666666667</v>
       </c>
       <c r="E22" t="n">
-        <v>5.43333333333333</v>
+        <v>5.42307692307692</v>
       </c>
       <c r="F22" t="n">
         <v>5.73076923076923</v>
       </c>
       <c r="G22" t="n">
-        <v>5.6</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B23" t="n">
-        <v>0.290322580645161</v>
+        <v>0.230769230769231</v>
       </c>
       <c r="C23" t="n">
-        <v>0.206896551724138</v>
+        <v>0.115384615384615</v>
       </c>
       <c r="D23" t="n">
         <v>0.0833333333333333</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3</v>
+        <v>0.230769230769231</v>
       </c>
       <c r="F23" t="n">
         <v>0.153846153846154</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B24" t="n">
-        <v>17.2029032258065</v>
+        <v>16.4073076923077</v>
       </c>
       <c r="C24" t="n">
-        <v>16.9210344827586</v>
+        <v>15.8873076923077</v>
       </c>
       <c r="D24" t="n">
         <v>20.6191666666667</v>
       </c>
       <c r="E24" t="n">
-        <v>16.6651612903226</v>
+        <v>15.8840740740741</v>
       </c>
       <c r="F24" t="n">
         <v>16.3925925925926</v>
       </c>
       <c r="G24" t="n">
-        <v>25.423</v>
+        <v>25.37</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B25" t="n">
-        <v>19.74</v>
+        <v>18.4323076923077</v>
       </c>
       <c r="C25" t="n">
-        <v>18.6410714285714</v>
+        <v>18.2796153846154</v>
       </c>
       <c r="D25" t="n">
         <v>24.095</v>
       </c>
       <c r="E25" t="n">
-        <v>19.9377419354839</v>
+        <v>19.2303703703704</v>
       </c>
       <c r="F25" t="n">
         <v>18.577037037037</v>
       </c>
       <c r="G25" t="n">
-        <v>29.897</v>
+        <v>27.25375</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B26" t="n">
-        <v>43.5612903225806</v>
+        <v>34.2038461538462</v>
       </c>
       <c r="C26" t="n">
-        <v>37.6732142857143</v>
+        <v>33.4173076923077</v>
       </c>
       <c r="D26" t="n">
         <v>48.9008333333333</v>
       </c>
       <c r="E26" t="n">
-        <v>38.6045161290323</v>
+        <v>37.3896296296296</v>
       </c>
       <c r="F26" t="n">
         <v>35.9366666666667</v>
       </c>
       <c r="G26" t="n">
-        <v>73.248</v>
+        <v>58.30125</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B27" t="n">
-        <v>1.54838709677419</v>
+        <v>1.11538461538462</v>
       </c>
       <c r="C27" t="n">
-        <v>1.10714285714286</v>
+        <v>0.769230769230769</v>
       </c>
       <c r="D27" t="n">
         <v>0.666666666666667</v>
       </c>
       <c r="E27" t="n">
-        <v>2.16129032258065</v>
+        <v>1.77777777777778</v>
       </c>
       <c r="F27" t="n">
         <v>1.55555555555556</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B28" t="n">
-        <v>22.6129032258065</v>
+        <v>24.8076923076923</v>
       </c>
       <c r="C28" t="n">
-        <v>22.2142857142857</v>
+        <v>23.48</v>
       </c>
       <c r="D28" t="n">
         <v>23.0833333333333</v>
       </c>
       <c r="E28" t="n">
-        <v>21.2</v>
+        <v>22.5</v>
       </c>
       <c r="F28" t="n">
         <v>23.1153846153846</v>
       </c>
       <c r="G28" t="n">
-        <v>13</v>
+        <v>11.875</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B29" t="n">
-        <v>7.61290322580645</v>
+        <v>8</v>
       </c>
       <c r="C29" t="n">
-        <v>7.89655172413793</v>
+        <v>8.38461538461539</v>
       </c>
       <c r="D29" t="n">
         <v>7.41666666666667</v>
       </c>
       <c r="E29" t="n">
-        <v>7.3</v>
+        <v>7.38461538461539</v>
       </c>
       <c r="F29" t="n">
         <v>7.40740740740741</v>
       </c>
       <c r="G29" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B30" t="n">
-        <v>58.3345161290323</v>
+        <v>55.295</v>
       </c>
       <c r="C30" t="n">
-        <v>65.3168965517241</v>
+        <v>61.7457692307692</v>
       </c>
       <c r="D30" t="n">
         <v>51.2241666666667</v>
       </c>
       <c r="E30" t="n">
-        <v>65.93</v>
+        <v>54.8324</v>
       </c>
       <c r="F30" t="n">
         <v>54.0973076923077</v>
       </c>
       <c r="G30" t="n">
-        <v>126.238</v>
+        <v>106.4325</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B31" t="n">
-        <v>172.190666666667</v>
+        <v>150.950769230769</v>
       </c>
       <c r="C31" t="n">
-        <v>168.598518518519</v>
+        <v>154.506153846154</v>
       </c>
       <c r="D31" t="n">
         <v>131.028333333333</v>
       </c>
       <c r="E31" t="n">
-        <v>157.92275862069</v>
+        <v>142.4624</v>
       </c>
       <c r="F31" t="n">
         <v>141.021923076923</v>
       </c>
       <c r="G31" t="n">
-        <v>290</v>
+        <v>278.5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B32" t="n">
-        <v>20.3548387096774</v>
+        <v>20.4230769230769</v>
       </c>
       <c r="C32" t="n">
-        <v>19.8965517241379</v>
+        <v>20.4230769230769</v>
       </c>
       <c r="D32" t="n">
         <v>20.4166666666667</v>
       </c>
       <c r="E32" t="n">
-        <v>20.6551724137931</v>
+        <v>21.64</v>
       </c>
       <c r="F32" t="n">
         <v>21.5</v>
       </c>
       <c r="G32" t="n">
-        <v>14.9</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B33" t="n">
-        <v>22.9032258064516</v>
+        <v>23.7692307692308</v>
       </c>
       <c r="C33" t="n">
-        <v>24.2413793103448</v>
+        <v>25.3846153846154</v>
       </c>
       <c r="D33" t="n">
         <v>24.5833333333333</v>
       </c>
       <c r="E33" t="n">
-        <v>21.0967741935484</v>
+        <v>22.0740740740741</v>
       </c>
       <c r="F33" t="n">
         <v>23.4615384615385</v>
       </c>
       <c r="G33" t="n">
-        <v>23.8</v>
+        <v>25.25</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B34" t="n">
-        <v>15.2258064516129</v>
+        <v>15.4615384615385</v>
       </c>
       <c r="C34" t="n">
-        <v>15.8965517241379</v>
+        <v>16.2307692307692</v>
       </c>
       <c r="D34" t="n">
         <v>15.75</v>
       </c>
       <c r="E34" t="n">
-        <v>14.1724137931034</v>
+        <v>14.64</v>
       </c>
       <c r="F34" t="n">
         <v>15.6296296296296</v>
       </c>
       <c r="G34" t="n">
-        <v>15</v>
+        <v>15.875</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B35" t="n">
-        <v>17.0967741935484</v>
+        <v>17.2692307692308</v>
       </c>
       <c r="C35" t="n">
-        <v>16.6896551724138</v>
+        <v>17.6538461538462</v>
       </c>
       <c r="D35" t="n">
         <v>14.9166666666667</v>
       </c>
       <c r="E35" t="n">
-        <v>14.9333333333333</v>
+        <v>15.3461538461538</v>
       </c>
       <c r="F35" t="n">
         <v>15.9615384615385</v>
       </c>
       <c r="G35" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B36" t="n">
-        <v>14.8064516129032</v>
+        <v>15.4615384615385</v>
       </c>
       <c r="C36" t="n">
-        <v>15</v>
+        <v>16.0384615384615</v>
       </c>
       <c r="D36" t="n">
         <v>13</v>
       </c>
       <c r="E36" t="n">
-        <v>13.6333333333333</v>
+        <v>14.2307692307692</v>
       </c>
       <c r="F36" t="n">
         <v>15</v>
       </c>
       <c r="G36" t="n">
-        <v>13.8</v>
+        <v>13.875</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B37" t="n">
-        <v>13.7096774193548</v>
+        <v>14.1538461538462</v>
       </c>
       <c r="C37" t="n">
-        <v>13.0689655172414</v>
+        <v>13.8461538461538</v>
       </c>
       <c r="D37" t="n">
         <v>11.9166666666667</v>
       </c>
       <c r="E37" t="n">
-        <v>12.6333333333333</v>
+        <v>13.2307692307692</v>
       </c>
       <c r="F37" t="n">
         <v>14.2307692307692</v>
       </c>
       <c r="G37" t="n">
-        <v>10.4</v>
+        <v>10.875</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B38" t="n">
-        <v>20.2258064516129</v>
+        <v>21.0384615384615</v>
       </c>
       <c r="C38" t="n">
-        <v>19.5172413793103</v>
+        <v>20.9615384615385</v>
       </c>
       <c r="D38" t="n">
         <v>20.0833333333333</v>
       </c>
       <c r="E38" t="n">
-        <v>20.5333333333333</v>
+        <v>20.7307692307692</v>
       </c>
       <c r="F38" t="n">
         <v>20.6538461538462</v>
       </c>
       <c r="G38" t="n">
-        <v>17.5</v>
+        <v>17.875</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B39" t="n">
-        <v>11.5483870967742</v>
+        <v>12.1153846153846</v>
       </c>
       <c r="C39" t="n">
-        <v>11.7241379310345</v>
+        <v>12.5384615384615</v>
       </c>
       <c r="D39" t="n">
         <v>13.0833333333333</v>
       </c>
       <c r="E39" t="n">
-        <v>11.6666666666667</v>
+        <v>12.1153846153846</v>
       </c>
       <c r="F39" t="n">
         <v>11.4230769230769</v>
       </c>
       <c r="G39" t="n">
-        <v>10.9</v>
+        <v>10.375</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B40" t="n">
-        <v>26.4516129032258</v>
+        <v>27.3461538461538</v>
       </c>
       <c r="C40" t="n">
-        <v>27.3448275862069</v>
+        <v>28.1538461538462</v>
       </c>
       <c r="D40" t="n">
         <v>27.75</v>
       </c>
       <c r="E40" t="n">
-        <v>26.7</v>
+        <v>27.2307692307692</v>
       </c>
       <c r="F40" t="n">
         <v>28.2692307692308</v>
       </c>
       <c r="G40" t="n">
-        <v>27.3</v>
+        <v>28.25</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B41" t="n">
-        <v>28.2258064516129</v>
+        <v>28.7307692307692</v>
       </c>
       <c r="C41" t="n">
-        <v>28.7586206896552</v>
+        <v>29.1923076923077</v>
       </c>
       <c r="D41" t="n">
         <v>29.4545454545455</v>
       </c>
       <c r="E41" t="n">
-        <v>28.1333333333333</v>
+        <v>28.5384615384615</v>
       </c>
       <c r="F41" t="n">
         <v>29.1923076923077</v>
       </c>
       <c r="G41" t="n">
-        <v>28.4</v>
+        <v>29.25</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B42" t="n">
-        <v>29.258064516129</v>
+        <v>29.6153846153846</v>
       </c>
       <c r="C42" t="n">
-        <v>29.551724137931</v>
+        <v>29.8846153846154</v>
       </c>
       <c r="D42" t="n">
         <v>30</v>
       </c>
       <c r="E42" t="n">
-        <v>29.3666666666667</v>
+        <v>29.5</v>
       </c>
       <c r="F42" t="n">
         <v>29.7692307692308</v>
       </c>
       <c r="G42" t="n">
-        <v>29.3</v>
+        <v>29.625</v>
       </c>
     </row>
   </sheetData>
@@ -2521,68 +2506,68 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>7.2372988485799</v>
+        <v>7.31836467651493</v>
       </c>
       <c r="C3" t="n">
-        <v>7.2372988485799</v>
+        <v>7.31836467651493</v>
       </c>
       <c r="D3" t="n">
-        <v>7.2372988485799</v>
+        <v>7.31836467651493</v>
       </c>
       <c r="E3" t="n">
-        <v>6.35796004343992</v>
+        <v>6.67456796728129</v>
       </c>
       <c r="F3" t="n">
-        <v>6.35796004343992</v>
+        <v>6.67456796728129</v>
       </c>
       <c r="G3" t="n">
-        <v>6.35796004343992</v>
+        <v>6.67456796728129</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>2.67002476731294</v>
+        <v>2.59029252877265</v>
       </c>
       <c r="C4" t="n">
-        <v>2.67002476731294</v>
+        <v>2.59029252877265</v>
       </c>
       <c r="D4" t="n">
-        <v>2.67002476731294</v>
+        <v>2.59029252877265</v>
       </c>
       <c r="E4" t="n">
-        <v>2.60283137809496</v>
+        <v>2.46701891686755</v>
       </c>
       <c r="F4" t="n">
-        <v>2.60283137809496</v>
+        <v>2.46701891686755</v>
       </c>
       <c r="G4" t="n">
-        <v>2.60283137809496</v>
+        <v>2.46701891686755</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>8.86178214557878</v>
+        <v>8.75240626254377</v>
       </c>
       <c r="C5" t="n">
-        <v>9.21745835149465</v>
+        <v>9.30017920974286</v>
       </c>
       <c r="D5" t="n">
         <v>6.62410657211883</v>
       </c>
       <c r="E5" t="n">
-        <v>9.3467063471701</v>
+        <v>6.88376015315422</v>
       </c>
       <c r="F5" t="n">
         <v>9.15204895091804</v>
       </c>
       <c r="G5" t="n">
-        <v>17.7208289246801</v>
+        <v>17.401423039784</v>
       </c>
     </row>
     <row r="6">
@@ -2590,22 +2575,22 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>8.31904150806469</v>
+        <v>8.42532811504418</v>
       </c>
       <c r="C6" t="n">
-        <v>8.7965902484997</v>
+        <v>8.65293784406968</v>
       </c>
       <c r="D6" t="n">
         <v>7.61378335452861</v>
       </c>
       <c r="E6" t="n">
-        <v>9.38964947382911</v>
+        <v>9.48650863879047</v>
       </c>
       <c r="F6" t="n">
         <v>8.51144026499719</v>
       </c>
       <c r="G6" t="n">
-        <v>13.5738719604982</v>
+        <v>12.7522173608768</v>
       </c>
     </row>
     <row r="7">
@@ -2613,827 +2598,827 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>5.91277595890711</v>
+        <v>5.38268829984919</v>
       </c>
       <c r="C7" t="n">
-        <v>6.33245607959503</v>
+        <v>6.15304802516606</v>
       </c>
       <c r="D7" t="n">
         <v>5.67490488506596</v>
       </c>
       <c r="E7" t="n">
-        <v>8.41324899314704</v>
+        <v>8.1644633343816</v>
       </c>
       <c r="F7" t="n">
         <v>11.8768682740864</v>
       </c>
       <c r="G7" t="n">
-        <v>10.1409706495131</v>
+        <v>8.65750431431489</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>1.68994496315549</v>
+        <v>1.42288980058731</v>
       </c>
       <c r="C8" t="n">
-        <v>1.58347376440583</v>
+        <v>1.24838357024656</v>
       </c>
       <c r="D8" t="n">
         <v>0.90033663737852</v>
       </c>
       <c r="E8" t="n">
-        <v>1.32145244301102</v>
+        <v>1.27209811659071</v>
       </c>
       <c r="F8" t="n">
         <v>1.17331439378654</v>
       </c>
       <c r="G8" t="n">
-        <v>2.34520787991171</v>
+        <v>1.11269728052837</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>4.17210397915767</v>
+        <v>2.71774793646391</v>
       </c>
       <c r="C9" t="n">
-        <v>6.1142649969724</v>
+        <v>1.09825035677383</v>
       </c>
       <c r="D9" t="n">
         <v>2.89199522192488</v>
       </c>
       <c r="E9" t="n">
-        <v>1.46940116542292</v>
+        <v>1.55890969276589</v>
       </c>
       <c r="F9" t="n">
         <v>2.32522400354604</v>
       </c>
       <c r="G9" t="n">
-        <v>2.82842712474619</v>
+        <v>1.51185789203691</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.340777100548239</v>
+        <v>0.325812593608421</v>
       </c>
       <c r="C10" t="n">
-        <v>0.371390676354104</v>
+        <v>0.392232270276368</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.499462076229415</v>
+        <v>0.38490017945975</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.440958551844098</v>
+        <v>0.377964473009227</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>2.2713739861472</v>
+        <v>1.56696669249369</v>
       </c>
       <c r="C11" t="n">
-        <v>4.54615086471281</v>
+        <v>1.10662341589874</v>
       </c>
       <c r="D11" t="n">
         <v>0.996204919895622</v>
       </c>
       <c r="E11" t="n">
-        <v>1.69502751587397</v>
+        <v>1.63908806554428</v>
       </c>
       <c r="F11" t="n">
         <v>2.1694853460364</v>
       </c>
       <c r="G11" t="n">
-        <v>2.95803989154981</v>
+        <v>0.786795792469443</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B12" t="n">
-        <v>2.86356421265527</v>
+        <v>1.66271325989041</v>
       </c>
       <c r="C12" t="n">
-        <v>3.17742963939416</v>
+        <v>1.99113419553163</v>
       </c>
       <c r="D12" t="n">
         <v>2.93876906822629</v>
       </c>
       <c r="E12" t="n">
-        <v>1.69692954847074</v>
+        <v>1.73287304868216</v>
       </c>
       <c r="F12" t="n">
         <v>1.05356537528527</v>
       </c>
       <c r="G12" t="n">
-        <v>2.58736244937667</v>
+        <v>0.951189731211342</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B13" t="n">
-        <v>8.78818855421959</v>
+        <v>4.58022505325465</v>
       </c>
       <c r="C13" t="n">
-        <v>14.1544958827427</v>
+        <v>3.52070797076165</v>
       </c>
       <c r="D13" t="n">
         <v>5.02719875007218</v>
       </c>
       <c r="E13" t="n">
-        <v>5.14311315287014</v>
+        <v>5.14269320952489</v>
       </c>
       <c r="F13" t="n">
         <v>4.26341021562161</v>
       </c>
       <c r="G13" t="n">
-        <v>10.0678255403593</v>
+        <v>2.69920623252731</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B14" t="n">
-        <v>11.1728357217188</v>
+        <v>9.28787464302869</v>
       </c>
       <c r="C14" t="n">
-        <v>11.9345505795964</v>
+        <v>9.8558846147092</v>
       </c>
       <c r="D14" t="n">
         <v>14.4871939270097</v>
       </c>
       <c r="E14" t="n">
-        <v>10.9378498407953</v>
+        <v>10.0966836111181</v>
       </c>
       <c r="F14" t="n">
         <v>11.7647888383199</v>
       </c>
       <c r="G14" t="n">
-        <v>17.6307811637614</v>
+        <v>18.2595376251896</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B15" t="n">
-        <v>1.59569312812326</v>
+        <v>1.69750948790823</v>
       </c>
       <c r="C15" t="n">
-        <v>1.66756954198015</v>
+        <v>1.63847959542235</v>
       </c>
       <c r="D15" t="n">
         <v>1.72328087371066</v>
       </c>
       <c r="E15" t="n">
-        <v>1.73948453618102</v>
+        <v>1.71053381314896</v>
       </c>
       <c r="F15" t="n">
         <v>1.24034734589208</v>
       </c>
       <c r="G15" t="n">
-        <v>1.7763883459299</v>
+        <v>1.88509188862809</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B16" t="n">
-        <v>3.34052986589646</v>
+        <v>3.19157544892077</v>
       </c>
       <c r="C16" t="n">
-        <v>3.45092262954038</v>
+        <v>2.82407234598985</v>
       </c>
       <c r="D16" t="n">
         <v>3.48590234394413</v>
       </c>
       <c r="E16" t="n">
-        <v>3.35145611108308</v>
+        <v>3.41105960594764</v>
       </c>
       <c r="F16" t="n">
         <v>3.44843992143373</v>
       </c>
       <c r="G16" t="n">
-        <v>3.21282153600573</v>
+        <v>3.50509832753866</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B17" t="n">
-        <v>3.34599744840476</v>
+        <v>3.14667101260021</v>
       </c>
       <c r="C17" t="n">
-        <v>3.87393716554122</v>
+        <v>3.43018277153767</v>
       </c>
       <c r="D17" t="n">
         <v>3.62127551611809</v>
       </c>
       <c r="E17" t="n">
-        <v>3.54419106744835</v>
+        <v>3.58772837207541</v>
       </c>
       <c r="F17" t="n">
         <v>4.20960778705068</v>
       </c>
       <c r="G17" t="n">
-        <v>4.16866618689693</v>
+        <v>4.43202630213959</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B18" t="n">
-        <v>1.89169094295445</v>
+        <v>1.83805917708368</v>
       </c>
       <c r="C18" t="n">
-        <v>2.51253017529609</v>
+        <v>2.53012617502338</v>
       </c>
       <c r="D18" t="n">
         <v>4.14143877795086</v>
       </c>
       <c r="E18" t="n">
-        <v>2.21140737555186</v>
+        <v>2.10480389352534</v>
       </c>
       <c r="F18" t="n">
         <v>1.36813554584145</v>
       </c>
       <c r="G18" t="n">
-        <v>4.28044649799787</v>
+        <v>4.77904652773811</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B19" t="n">
-        <v>5.58434832693656</v>
+        <v>4.24499705535823</v>
       </c>
       <c r="C19" t="n">
-        <v>6.97303038207633</v>
+        <v>3.50142828000232</v>
       </c>
       <c r="D19" t="n">
         <v>4.14143877795086</v>
       </c>
       <c r="E19" t="n">
-        <v>5.82910753234626</v>
+        <v>5.62959214262523</v>
       </c>
       <c r="F19" t="n">
         <v>4.80651267579355</v>
       </c>
       <c r="G19" t="n">
-        <v>6.51152823843988</v>
+        <v>6.94365074829414</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B20" t="n">
-        <v>9.15599574402021</v>
+        <v>8.09102066395924</v>
       </c>
       <c r="C20" t="n">
-        <v>8.35407926668695</v>
+        <v>6.98140387028282</v>
       </c>
       <c r="D20" t="n">
         <v>5.26279105579632</v>
       </c>
       <c r="E20" t="n">
-        <v>7.97993172557432</v>
+        <v>7.79230389551126</v>
       </c>
       <c r="F20" t="n">
         <v>7.91843030287812</v>
       </c>
       <c r="G20" t="n">
-        <v>8.77876225140348</v>
+        <v>6.97828263768591</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B21" t="n">
-        <v>3.4516631490665</v>
+        <v>2.97579982784202</v>
       </c>
       <c r="C21" t="n">
-        <v>3.66819642666945</v>
+        <v>2.98225521272847</v>
       </c>
       <c r="D21" t="n">
         <v>2.3094010767585</v>
       </c>
       <c r="E21" t="n">
-        <v>3.30603766727956</v>
+        <v>3.27132059901479</v>
       </c>
       <c r="F21" t="n">
         <v>3.14398081810551</v>
       </c>
       <c r="G21" t="n">
-        <v>3.58391468152416</v>
+        <v>2.97309362689534</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B22" t="n">
-        <v>0.851311448763435</v>
+        <v>0.571098805946787</v>
       </c>
       <c r="C22" t="n">
-        <v>0.712312545559586</v>
+        <v>0.514407799916938</v>
       </c>
       <c r="D22" t="n">
         <v>0.492365963917331</v>
       </c>
       <c r="E22" t="n">
-        <v>0.935260735665815</v>
+        <v>0.945434373103789</v>
       </c>
       <c r="F22" t="n">
         <v>0.533493565673837</v>
       </c>
       <c r="G22" t="n">
-        <v>0.699205898780101</v>
+        <v>0.462910049886276</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B23" t="n">
-        <v>0.588418693737533</v>
+        <v>0.514407799916938</v>
       </c>
       <c r="C23" t="n">
-        <v>0.491303684440517</v>
+        <v>0.325812593608421</v>
       </c>
       <c r="D23" t="n">
         <v>0.288675134594813</v>
       </c>
       <c r="E23" t="n">
-        <v>0.702213249857806</v>
+        <v>0.514407799916938</v>
       </c>
       <c r="F23" t="n">
         <v>0.36794648440312</v>
       </c>
       <c r="G23" t="n">
-        <v>0.316227766016838</v>
+        <v>0.353553390593274</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B24" t="n">
-        <v>4.70778517886305</v>
+        <v>3.4794833612964</v>
       </c>
       <c r="C24" t="n">
-        <v>5.12144186228532</v>
+        <v>3.14557156356972</v>
       </c>
       <c r="D24" t="n">
         <v>13.4602529074804</v>
       </c>
       <c r="E24" t="n">
-        <v>5.55312036664537</v>
+        <v>3.49529712532454</v>
       </c>
       <c r="F24" t="n">
         <v>3.17629996717588</v>
       </c>
       <c r="G24" t="n">
-        <v>15.0942373477798</v>
+        <v>16.1914015982028</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B25" t="n">
-        <v>6.15572470686163</v>
+        <v>4.09895040974375</v>
       </c>
       <c r="C25" t="n">
-        <v>3.50024056240553</v>
+        <v>3.354969425517</v>
       </c>
       <c r="D25" t="n">
         <v>16.9714297356683</v>
       </c>
       <c r="E25" t="n">
-        <v>7.36515567143805</v>
+        <v>5.37258101666478</v>
       </c>
       <c r="F25" t="n">
         <v>4.39486134796153</v>
       </c>
       <c r="G25" t="n">
-        <v>18.6522319486614</v>
+        <v>17.5833435285459</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B26" t="n">
-        <v>38.6089543795163</v>
+        <v>11.4524701534378</v>
       </c>
       <c r="C26" t="n">
-        <v>20.565545269909</v>
+        <v>10.2924961239506</v>
       </c>
       <c r="D26" t="n">
         <v>61.4815001677642</v>
       </c>
       <c r="E26" t="n">
-        <v>14.1362394430555</v>
+        <v>13.4534343574939</v>
       </c>
       <c r="F26" t="n">
         <v>13.917218997177</v>
       </c>
       <c r="G26" t="n">
-        <v>88.2896271496387</v>
+        <v>74.004139350927</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B27" t="n">
-        <v>1.85900886993436</v>
+        <v>1.2752073737843</v>
       </c>
       <c r="C27" t="n">
-        <v>1.6406702721141</v>
+        <v>1.03180200843737</v>
       </c>
       <c r="D27" t="n">
         <v>0.778498944161523</v>
       </c>
       <c r="E27" t="n">
-        <v>3.49377326294985</v>
+        <v>3.25024653897248</v>
       </c>
       <c r="F27" t="n">
         <v>1.82574185835055</v>
       </c>
       <c r="G27" t="n">
-        <v>0.948683298050514</v>
+        <v>1.06066017177982</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B28" t="n">
-        <v>7.93169767180956</v>
+        <v>6.03999490575435</v>
       </c>
       <c r="C28" t="n">
-        <v>7.10428740064051</v>
+        <v>6.39087891712348</v>
       </c>
       <c r="D28" t="n">
         <v>6.57071095272364</v>
       </c>
       <c r="E28" t="n">
-        <v>7.05837726784085</v>
+        <v>6.47610994347687</v>
       </c>
       <c r="F28" t="n">
         <v>6.86047766894943</v>
       </c>
       <c r="G28" t="n">
-        <v>10.7909427041591</v>
+        <v>7.41499446103251</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B29" t="n">
-        <v>2.108355114852</v>
+        <v>2.0591260281974</v>
       </c>
       <c r="C29" t="n">
-        <v>2.87035124264569</v>
+        <v>2.59348295659598</v>
       </c>
       <c r="D29" t="n">
         <v>2.87491765362967</v>
       </c>
       <c r="E29" t="n">
-        <v>2.24606936362324</v>
+        <v>2.33369960495216</v>
       </c>
       <c r="F29" t="n">
         <v>2.50014244608427</v>
       </c>
       <c r="G29" t="n">
-        <v>2.83039062871384</v>
+        <v>2.8784916685157</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B30" t="n">
-        <v>24.4080471482542</v>
+        <v>18.3956725889542</v>
       </c>
       <c r="C30" t="n">
-        <v>35.890982463113</v>
+        <v>34.6340440807107</v>
       </c>
       <c r="D30" t="n">
         <v>16.5961158973655</v>
       </c>
       <c r="E30" t="n">
-        <v>61.5285331602919</v>
+        <v>25.6012965622186</v>
       </c>
       <c r="F30" t="n">
         <v>26.7528043476107</v>
       </c>
       <c r="G30" t="n">
-        <v>128.180620202726</v>
+        <v>109.816018965489</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B31" t="n">
-        <v>118.075864243213</v>
+        <v>79.6441207835495</v>
       </c>
       <c r="C31" t="n">
-        <v>128.975305975861</v>
+        <v>108.274994235121</v>
       </c>
       <c r="D31" t="n">
         <v>62.9546556633977</v>
       </c>
       <c r="E31" t="n">
-        <v>108.049930518142</v>
+        <v>96.0199539279901</v>
       </c>
       <c r="F31" t="n">
         <v>104.730574524128</v>
       </c>
       <c r="G31" t="n">
-        <v>225.183382059058</v>
+        <v>211.013202024355</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B32" t="n">
-        <v>6.25325721575977</v>
+        <v>6.63429319173084</v>
       </c>
       <c r="C32" t="n">
-        <v>6.2010645836375</v>
+        <v>6.28759462384831</v>
       </c>
       <c r="D32" t="n">
         <v>5.38446136975875</v>
       </c>
       <c r="E32" t="n">
-        <v>6.84144858339313</v>
+        <v>6.41534618447568</v>
       </c>
       <c r="F32" t="n">
         <v>6.13351449007826</v>
       </c>
       <c r="G32" t="n">
-        <v>8.14384566542259</v>
+        <v>8.31092224554102</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B33" t="n">
-        <v>4.74239629097413</v>
+        <v>2.97062541977534</v>
       </c>
       <c r="C33" t="n">
-        <v>5.8165722135353</v>
+        <v>3.49945050631579</v>
       </c>
       <c r="D33" t="n">
         <v>2.84312035153866</v>
       </c>
       <c r="E33" t="n">
-        <v>5.56988832149968</v>
+        <v>4.99173105419141</v>
       </c>
       <c r="F33" t="n">
         <v>4.81024547590469</v>
       </c>
       <c r="G33" t="n">
-        <v>4.68567557088149</v>
+        <v>3.01188123461543</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B34" t="n">
-        <v>1.90979366109457</v>
+        <v>1.50281786603086</v>
       </c>
       <c r="C34" t="n">
-        <v>1.83895986878854</v>
+        <v>1.53121369658692</v>
       </c>
       <c r="D34" t="n">
         <v>1.6583123951777</v>
       </c>
       <c r="E34" t="n">
-        <v>3.67490491147382</v>
+        <v>2.59615099714943</v>
       </c>
       <c r="F34" t="n">
         <v>1.64429428743875</v>
       </c>
       <c r="G34" t="n">
-        <v>2.44948974278318</v>
+        <v>1.24642345475822</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B35" t="n">
-        <v>5.30631597695726</v>
+        <v>4.7375748421123</v>
       </c>
       <c r="C35" t="n">
-        <v>5.80088323494093</v>
+        <v>5.03541305310544</v>
       </c>
       <c r="D35" t="n">
         <v>7.46456274470896</v>
       </c>
       <c r="E35" t="n">
-        <v>6.47506268553511</v>
+        <v>6.78198972392207</v>
       </c>
       <c r="F35" t="n">
         <v>6.47753514374577</v>
       </c>
       <c r="G35" t="n">
-        <v>7.1840873540841</v>
+        <v>7.67184090405574</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B36" t="n">
-        <v>6.18287610980904</v>
+        <v>5.29324678609089</v>
       </c>
       <c r="C36" t="n">
-        <v>5.03558763771845</v>
+        <v>3.94442157210174</v>
       </c>
       <c r="D36" t="n">
         <v>7.81606736734716</v>
       </c>
       <c r="E36" t="n">
-        <v>5.28813462537519</v>
+        <v>5.25591242170333</v>
       </c>
       <c r="F36" t="n">
         <v>6.72309452558864</v>
       </c>
       <c r="G36" t="n">
-        <v>8.0938934457473</v>
+        <v>8.49264387573152</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B37" t="n">
-        <v>4.85244645092965</v>
+        <v>4.23029367956701</v>
       </c>
       <c r="C37" t="n">
-        <v>4.39911545072057</v>
+        <v>3.72765135378627</v>
       </c>
       <c r="D37" t="n">
         <v>7.14089799972134</v>
       </c>
       <c r="E37" t="n">
-        <v>4.85289343718195</v>
+        <v>4.86051595868333</v>
       </c>
       <c r="F37" t="n">
         <v>5.6731486305768</v>
       </c>
       <c r="G37" t="n">
-        <v>6.65331997326648</v>
+        <v>7.21976453909683</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B38" t="n">
-        <v>9.00262805118355</v>
+        <v>8.4070483249748</v>
       </c>
       <c r="C38" t="n">
-        <v>8.72034030158052</v>
+        <v>7.85610982219963</v>
       </c>
       <c r="D38" t="n">
         <v>10.1485183274419</v>
       </c>
       <c r="E38" t="n">
-        <v>6.38820752655225</v>
+        <v>6.69063639608486</v>
       </c>
       <c r="F38" t="n">
         <v>7.18299273390866</v>
       </c>
       <c r="G38" t="n">
-        <v>8.1955272354295</v>
+        <v>8.20169843037752</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B39" t="n">
-        <v>5.22710059642641</v>
+        <v>4.58106470661066</v>
       </c>
       <c r="C39" t="n">
-        <v>4.61284349649462</v>
+        <v>4.10103176511247</v>
       </c>
       <c r="D39" t="n">
         <v>8.4257002226773</v>
       </c>
       <c r="E39" t="n">
-        <v>4.26964694763762</v>
+        <v>4.14079145166161</v>
       </c>
       <c r="F39" t="n">
         <v>5.4565415927899</v>
       </c>
       <c r="G39" t="n">
-        <v>6.57351588657935</v>
+        <v>7.26906360642729</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B40" t="n">
-        <v>3.68635962866185</v>
+        <v>2.34848560042096</v>
       </c>
       <c r="C40" t="n">
-        <v>4.14277220908351</v>
+        <v>2.1483446221183</v>
       </c>
       <c r="D40" t="n">
         <v>1.54478595163331</v>
       </c>
       <c r="E40" t="n">
-        <v>2.75618426890111</v>
+        <v>2.12240792135145</v>
       </c>
       <c r="F40" t="n">
         <v>1.61388208510268</v>
       </c>
       <c r="G40" t="n">
-        <v>4.00138864784603</v>
+        <v>1.83225076262581</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B41" t="n">
-        <v>2.27610306473374</v>
+        <v>1.37281294596729</v>
       </c>
       <c r="C41" t="n">
-        <v>2.098556858105</v>
+        <v>1.0205579167977</v>
       </c>
       <c r="D41" t="n">
         <v>0.820199532264724</v>
       </c>
       <c r="E41" t="n">
-        <v>2.0126039631889</v>
+        <v>1.63047892916822</v>
       </c>
       <c r="F41" t="n">
         <v>1.20064085451831</v>
       </c>
       <c r="G41" t="n">
-        <v>3.02581485810939</v>
+        <v>0.707106781186548</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B42" t="n">
-        <v>1.48251457408202</v>
+        <v>0.897860705317838</v>
       </c>
       <c r="C42" t="n">
-        <v>1.40372481268719</v>
+        <v>0.325812593608421</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0.99942512211403</v>
+        <v>0.812403840463596</v>
       </c>
       <c r="F42" t="n">
         <v>0.514407799916938</v>
       </c>
       <c r="G42" t="n">
-        <v>1.25166555703457</v>
+        <v>0.517549169506766</v>
       </c>
     </row>
   </sheetData>
@@ -3498,18 +3483,18 @@
         <v>70</v>
       </c>
       <c r="E3" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F3" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G3" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="n">
         <v>17</v>
@@ -3532,25 +3517,25 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="n">
         <v>37</v>
       </c>
       <c r="C5" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" t="n">
         <v>39</v>
       </c>
       <c r="E5" t="n">
-        <v>36.5</v>
+        <v>35</v>
       </c>
       <c r="F5" t="n">
         <v>39.5</v>
       </c>
       <c r="G5" t="n">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6">
@@ -3558,7 +3543,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="C6" t="n">
         <v>42</v>
@@ -3567,13 +3552,13 @@
         <v>43</v>
       </c>
       <c r="E6" t="n">
-        <v>44</v>
+        <v>43.5</v>
       </c>
       <c r="F6" t="n">
         <v>44</v>
       </c>
       <c r="G6" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
@@ -3584,7 +3569,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
         <v>8.5</v>
@@ -3596,18 +3581,18 @@
         <v>10.5</v>
       </c>
       <c r="G7" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
         <v>36</v>
       </c>
       <c r="C8" t="n">
-        <v>36</v>
+        <v>36.5</v>
       </c>
       <c r="D8" t="n">
         <v>37</v>
@@ -3624,7 +3609,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
         <v>37</v>
@@ -3647,7 +3632,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B10" t="n">
         <v>6</v>
@@ -3670,7 +3655,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n">
         <v>39</v>
@@ -3693,13 +3678,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B12" t="n">
-        <v>24</v>
+        <v>24.5</v>
       </c>
       <c r="C12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="n">
         <v>23.5</v>
@@ -3711,15 +3696,15 @@
         <v>24</v>
       </c>
       <c r="G12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B13" t="n">
-        <v>141</v>
+        <v>141.5</v>
       </c>
       <c r="C13" t="n">
         <v>142</v>
@@ -3728,47 +3713,47 @@
         <v>140</v>
       </c>
       <c r="E13" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F13" t="n">
         <v>140</v>
       </c>
       <c r="G13" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B14" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" t="n">
-        <v>43</v>
+        <v>44.5</v>
       </c>
       <c r="D14" t="n">
         <v>44.5</v>
       </c>
       <c r="E14" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F14" t="n">
         <v>43</v>
       </c>
       <c r="G14" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B15" t="n">
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>4</v>
@@ -3780,38 +3765,38 @@
         <v>4</v>
       </c>
       <c r="G15" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C16" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="D16" t="n">
         <v>7.5</v>
       </c>
       <c r="E16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F16" t="n">
         <v>9</v>
       </c>
       <c r="G16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" t="n">
         <v>8</v>
@@ -3820,18 +3805,18 @@
         <v>7</v>
       </c>
       <c r="E17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F17" t="n">
         <v>9</v>
       </c>
       <c r="G17" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B18" t="n">
         <v>13</v>
@@ -3849,18 +3834,18 @@
         <v>14</v>
       </c>
       <c r="G18" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="D19" t="n">
         <v>3.5</v>
@@ -3872,15 +3857,15 @@
         <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" t="n">
         <v>26</v>
@@ -3889,30 +3874,30 @@
         <v>24.5</v>
       </c>
       <c r="E20" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="F20" t="n">
         <v>25.5</v>
       </c>
       <c r="G20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B21" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="C21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D21" t="n">
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F21" t="n">
         <v>10</v>
@@ -3923,7 +3908,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B22" t="n">
         <v>6</v>
@@ -3946,7 +3931,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
@@ -3969,19 +3954,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B24" t="n">
-        <v>16.8</v>
+        <v>16.25</v>
       </c>
       <c r="C24" t="n">
-        <v>16.2</v>
+        <v>15.62</v>
       </c>
       <c r="D24" t="n">
         <v>16.105</v>
       </c>
       <c r="E24" t="n">
-        <v>15.2</v>
+        <v>14.93</v>
       </c>
       <c r="F24" t="n">
         <v>15.5</v>
@@ -3992,13 +3977,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B25" t="n">
-        <v>18.9</v>
+        <v>17.5</v>
       </c>
       <c r="C25" t="n">
-        <v>17.885</v>
+        <v>17.325</v>
       </c>
       <c r="D25" t="n">
         <v>17.115</v>
@@ -4010,24 +3995,24 @@
         <v>16.9</v>
       </c>
       <c r="G25" t="n">
-        <v>19.72</v>
+        <v>18.53</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B26" t="n">
-        <v>32.9</v>
+        <v>31.15</v>
       </c>
       <c r="C26" t="n">
-        <v>35</v>
+        <v>34.55</v>
       </c>
       <c r="D26" t="n">
         <v>28.275</v>
       </c>
       <c r="E26" t="n">
-        <v>36.5</v>
+        <v>33.6</v>
       </c>
       <c r="F26" t="n">
         <v>34.93</v>
@@ -4038,13 +4023,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B27" t="n">
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0.5</v>
@@ -4061,19 +4046,19 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B28" t="n">
-        <v>24</v>
+        <v>25.5</v>
       </c>
       <c r="C28" t="n">
-        <v>23.5</v>
+        <v>25</v>
       </c>
       <c r="D28" t="n">
         <v>22</v>
       </c>
       <c r="E28" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="F28" t="n">
         <v>22.5</v>
@@ -4084,10 +4069,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="n">
         <v>8</v>
@@ -4107,19 +4092,19 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B30" t="n">
         <v>54.3</v>
       </c>
       <c r="C30" t="n">
-        <v>60.01</v>
+        <v>57.95</v>
       </c>
       <c r="D30" t="n">
         <v>49.065</v>
       </c>
       <c r="E30" t="n">
-        <v>48.35</v>
+        <v>45.27</v>
       </c>
       <c r="F30" t="n">
         <v>51.27</v>
@@ -4130,19 +4115,19 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B31" t="n">
-        <v>145</v>
+        <v>138.5</v>
       </c>
       <c r="C31" t="n">
-        <v>133</v>
+        <v>126.535</v>
       </c>
       <c r="D31" t="n">
         <v>125</v>
       </c>
       <c r="E31" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F31" t="n">
         <v>127.505</v>
@@ -4153,19 +4138,19 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B32" t="n">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="C32" t="n">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="D32" t="n">
         <v>22</v>
       </c>
       <c r="E32" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F32" t="n">
         <v>22.5</v>
@@ -4176,30 +4161,30 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B33" t="n">
-        <v>24</v>
+        <v>24.5</v>
       </c>
       <c r="C33" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D33" t="n">
         <v>24.5</v>
       </c>
       <c r="E33" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F33" t="n">
         <v>24</v>
       </c>
       <c r="G33" t="n">
-        <v>25.5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B34" t="n">
         <v>16</v>
@@ -4211,7 +4196,7 @@
         <v>16.5</v>
       </c>
       <c r="E34" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F34" t="n">
         <v>16</v>
@@ -4222,10 +4207,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B35" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C35" t="n">
         <v>17</v>
@@ -4234,30 +4219,30 @@
         <v>17</v>
       </c>
       <c r="E35" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="F35" t="n">
         <v>13.5</v>
       </c>
       <c r="G35" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B36" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="C36" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D36" t="n">
         <v>14.5</v>
       </c>
       <c r="E36" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F36" t="n">
         <v>13.5</v>
@@ -4268,13 +4253,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B37" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C37" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D37" t="n">
         <v>13</v>
@@ -4291,10 +4276,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B38" t="n">
-        <v>19</v>
+        <v>20.5</v>
       </c>
       <c r="C38" t="n">
         <v>21</v>
@@ -4314,36 +4299,36 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B39" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C39" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="D39" t="n">
         <v>14</v>
       </c>
       <c r="E39" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="F39" t="n">
         <v>9.5</v>
       </c>
       <c r="G39" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B40" t="n">
-        <v>27</v>
+        <v>27.5</v>
       </c>
       <c r="C40" t="n">
-        <v>28</v>
+        <v>28.5</v>
       </c>
       <c r="D40" t="n">
         <v>27</v>
@@ -4360,7 +4345,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B41" t="n">
         <v>29</v>
@@ -4383,7 +4368,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B42" t="n">
         <v>30</v>
@@ -4477,7 +4462,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="n">
         <v>11</v>
@@ -4500,7 +4485,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="n">
         <v>20</v>
@@ -4552,7 +4537,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -4569,13 +4554,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" t="n">
         <v>34</v>
@@ -4587,18 +4572,18 @@
         <v>34</v>
       </c>
       <c r="G8" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C9" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D9" t="n">
         <v>27</v>
@@ -4610,12 +4595,12 @@
         <v>29</v>
       </c>
       <c r="G9" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B10" t="n">
         <v>5</v>
@@ -4638,13 +4623,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C11" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D11" t="n">
         <v>37</v>
@@ -4656,18 +4641,18 @@
         <v>29</v>
       </c>
       <c r="G11" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B12" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C12" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D12" t="n">
         <v>17</v>
@@ -4679,18 +4664,18 @@
         <v>22</v>
       </c>
       <c r="G12" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B13" t="n">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="C13" t="n">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="D13" t="n">
         <v>126</v>
@@ -4702,24 +4687,24 @@
         <v>126</v>
       </c>
       <c r="G13" t="n">
-        <v>112</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B14" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C14" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F14" t="n">
         <v>25</v>
@@ -4730,7 +4715,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -4753,13 +4738,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -4776,7 +4761,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
@@ -4799,7 +4784,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B18" t="n">
         <v>6</v>
@@ -4822,7 +4807,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
@@ -4845,13 +4830,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B20" t="n">
         <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D20" t="n">
         <v>17</v>
@@ -4863,15 +4848,15 @@
         <v>7</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
@@ -4886,18 +4871,18 @@
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>5</v>
@@ -4909,12 +4894,12 @@
         <v>4</v>
       </c>
       <c r="G22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
@@ -4937,10 +4922,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B24" t="n">
-        <v>10</v>
+        <v>11.09</v>
       </c>
       <c r="C24" t="n">
         <v>10.71</v>
@@ -4960,10 +4945,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B25" t="n">
-        <v>11.1</v>
+        <v>13.1</v>
       </c>
       <c r="C25" t="n">
         <v>13.5</v>
@@ -4983,10 +4968,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B26" t="n">
-        <v>19.9</v>
+        <v>20.52</v>
       </c>
       <c r="C26" t="n">
         <v>19.4</v>
@@ -5006,7 +4991,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
@@ -5029,19 +5014,19 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B28" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D28" t="n">
         <v>12</v>
       </c>
       <c r="E28" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F28" t="n">
         <v>12</v>
@@ -5052,7 +5037,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B29" t="n">
         <v>5</v>
@@ -5075,10 +5060,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B30" t="n">
-        <v>21.5</v>
+        <v>24.21</v>
       </c>
       <c r="C30" t="n">
         <v>23.04</v>
@@ -5098,7 +5083,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B31" t="n">
         <v>37.72</v>
@@ -5116,12 +5101,12 @@
         <v>58.85</v>
       </c>
       <c r="G31" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B32" t="n">
         <v>4</v>
@@ -5144,33 +5129,33 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B33" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D33" t="n">
         <v>20</v>
       </c>
       <c r="E33" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F33" t="n">
         <v>15</v>
       </c>
       <c r="G33" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B34" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C34" t="n">
         <v>11</v>
@@ -5179,24 +5164,24 @@
         <v>12</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F34" t="n">
         <v>12</v>
       </c>
       <c r="G34" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B35" t="n">
         <v>7</v>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -5213,13 +5198,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -5236,13 +5221,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B37" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -5259,10 +5244,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B38" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C38" t="n">
         <v>2</v>
@@ -5282,19 +5267,19 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F39" t="n">
         <v>7</v>
@@ -5305,71 +5290,71 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B40" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C40" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D40" t="n">
         <v>26</v>
       </c>
       <c r="E40" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F40" t="n">
         <v>25</v>
       </c>
       <c r="G40" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B41" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C41" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D41" t="n">
         <v>28</v>
       </c>
       <c r="E41" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F41" t="n">
         <v>25</v>
       </c>
       <c r="G41" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B42" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C42" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D42" t="n">
         <v>30</v>
       </c>
       <c r="E42" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F42" t="n">
         <v>28</v>
       </c>
       <c r="G42" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -5445,7 +5430,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="n">
         <v>20</v>
@@ -5457,18 +5442,18 @@
         <v>20</v>
       </c>
       <c r="E4" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="F4" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="G4" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="n">
         <v>61</v>
@@ -5480,7 +5465,7 @@
         <v>45</v>
       </c>
       <c r="E5" t="n">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="F5" t="n">
         <v>68</v>
@@ -5532,12 +5517,12 @@
         <v>45</v>
       </c>
       <c r="G7" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
         <v>37</v>
@@ -5560,7 +5545,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
         <v>37</v>
@@ -5583,7 +5568,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B10" t="n">
         <v>6</v>
@@ -5606,7 +5591,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n">
         <v>39</v>
@@ -5629,7 +5614,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B12" t="n">
         <v>25</v>
@@ -5652,7 +5637,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B13" t="n">
         <v>144</v>
@@ -5675,7 +5660,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B14" t="n">
         <v>57</v>
@@ -5698,7 +5683,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B15" t="n">
         <v>7</v>
@@ -5721,7 +5706,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B16" t="n">
         <v>13</v>
@@ -5744,7 +5729,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B17" t="n">
         <v>12</v>
@@ -5767,7 +5752,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B18" t="n">
         <v>15</v>
@@ -5790,13 +5775,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B19" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C19" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D19" t="n">
         <v>11</v>
@@ -5813,10 +5798,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B20" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C20" t="n">
         <v>34</v>
@@ -5836,7 +5821,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B21" t="n">
         <v>12</v>
@@ -5859,7 +5844,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B22" t="n">
         <v>6</v>
@@ -5882,19 +5867,19 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B23" t="n">
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23" t="n">
         <v>1</v>
@@ -5905,19 +5890,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B24" t="n">
-        <v>32.6</v>
+        <v>24.56</v>
       </c>
       <c r="C24" t="n">
-        <v>37.07</v>
+        <v>22.8</v>
       </c>
       <c r="D24" t="n">
         <v>60</v>
       </c>
       <c r="E24" t="n">
-        <v>40.6</v>
+        <v>27.4</v>
       </c>
       <c r="F24" t="n">
         <v>24.29</v>
@@ -5928,10 +5913,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B25" t="n">
-        <v>37</v>
+        <v>29.3</v>
       </c>
       <c r="C25" t="n">
         <v>24.38</v>
@@ -5940,7 +5925,7 @@
         <v>60</v>
       </c>
       <c r="E25" t="n">
-        <v>48.4</v>
+        <v>39.2</v>
       </c>
       <c r="F25" t="n">
         <v>29.06</v>
@@ -5951,13 +5936,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B26" t="n">
-        <v>234</v>
+        <v>74.4</v>
       </c>
       <c r="C26" t="n">
-        <v>126</v>
+        <v>60.07</v>
       </c>
       <c r="D26" t="n">
         <v>240</v>
@@ -5974,13 +5959,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B27" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C27" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>2</v>
@@ -5997,7 +5982,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B28" t="n">
         <v>34</v>
@@ -6015,12 +6000,12 @@
         <v>35</v>
       </c>
       <c r="G28" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B29" t="n">
         <v>12</v>
@@ -6043,10 +6028,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B30" t="n">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="C30" t="n">
         <v>205.2</v>
@@ -6055,7 +6040,7 @@
         <v>82</v>
       </c>
       <c r="E30" t="n">
-        <v>360</v>
+        <v>118</v>
       </c>
       <c r="F30" t="n">
         <v>148.2</v>
@@ -6066,10 +6051,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B31" t="n">
-        <v>600</v>
+        <v>395.4</v>
       </c>
       <c r="C31" t="n">
         <v>600</v>
@@ -6089,7 +6074,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B32" t="n">
         <v>29</v>
@@ -6112,10 +6097,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B33" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C33" t="n">
         <v>32</v>
@@ -6135,7 +6120,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B34" t="n">
         <v>17</v>
@@ -6158,10 +6143,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B35" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C35" t="n">
         <v>27</v>
@@ -6181,10 +6166,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B36" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C36" t="n">
         <v>25</v>
@@ -6204,7 +6189,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B37" t="n">
         <v>24</v>
@@ -6227,7 +6212,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B38" t="n">
         <v>40</v>
@@ -6250,7 +6235,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B39" t="n">
         <v>23</v>
@@ -6273,7 +6258,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B40" t="n">
         <v>30</v>
@@ -6296,7 +6281,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B41" t="n">
         <v>30</v>
@@ -6319,7 +6304,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B42" t="n">
         <v>30</v>

--- a/tabs/pd_cogREH_desc.xlsx
+++ b/tabs/pd_cogREH_desc.xlsx
@@ -22,22 +22,22 @@
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">EXP_baseline</t>
+    <t xml:space="preserve">EXP_1baseline</t>
   </si>
   <si>
-    <t xml:space="preserve">EXP_retest</t>
+    <t xml:space="preserve">EXP_2retest</t>
   </si>
   <si>
-    <t xml:space="preserve">EXP_follow-up</t>
+    <t xml:space="preserve">EXP_3followup</t>
   </si>
   <si>
-    <t xml:space="preserve">CON_baseline</t>
+    <t xml:space="preserve">CON_1baseline</t>
   </si>
   <si>
-    <t xml:space="preserve">CON_retest</t>
+    <t xml:space="preserve">CON_2retest</t>
   </si>
   <si>
-    <t xml:space="preserve">CON_follow-up</t>
+    <t xml:space="preserve">CON_3followup</t>
   </si>
   <si>
     <t xml:space="preserve">Gender</t>
